--- a/config_12.15/fish_2d_fish_server.xlsx
+++ b/config_12.15/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="405">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1689,6 +1689,47 @@
   <si>
     <t>50,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.05,0.1</t>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,</t>
+  </si>
+  <si>
+    <t>176,</t>
+  </si>
+  <si>
+    <t>177,</t>
+  </si>
+  <si>
+    <t>178,</t>
+  </si>
+  <si>
+    <t>179,</t>
+  </si>
+  <si>
+    <t>180,</t>
+  </si>
+  <si>
+    <t>181,</t>
+  </si>
+  <si>
+    <t>182,</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1787,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +1827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,7 +1876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1919,6 +1966,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2202,10 +2265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7818,6 +7881,294 @@
         <v>174</v>
       </c>
     </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A202" s="37">
+        <v>201</v>
+      </c>
+      <c r="B202" s="37">
+        <v>1</v>
+      </c>
+      <c r="C202" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D202" s="37"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="37"/>
+      <c r="H202" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I202" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J202" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K202" s="37"/>
+      <c r="L202" s="37"/>
+      <c r="M202" s="37"/>
+      <c r="N202" s="37"/>
+      <c r="O202" s="37"/>
+      <c r="P202" s="37"/>
+      <c r="Q202" s="41">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A203" s="37">
+        <v>202</v>
+      </c>
+      <c r="B203" s="37">
+        <v>1</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="37"/>
+      <c r="H203" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I203" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J203" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K203" s="37"/>
+      <c r="L203" s="37"/>
+      <c r="M203" s="37"/>
+      <c r="N203" s="37"/>
+      <c r="O203" s="37"/>
+      <c r="P203" s="37"/>
+      <c r="Q203" s="41">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A204" s="37">
+        <v>203</v>
+      </c>
+      <c r="B204" s="37">
+        <v>1</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="D204" s="37"/>
+      <c r="E204" s="37"/>
+      <c r="F204" s="37"/>
+      <c r="G204" s="37"/>
+      <c r="H204" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I204" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J204" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K204" s="37"/>
+      <c r="L204" s="37"/>
+      <c r="M204" s="37"/>
+      <c r="N204" s="37"/>
+      <c r="O204" s="37"/>
+      <c r="P204" s="37"/>
+      <c r="Q204" s="41">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A205" s="37">
+        <v>204</v>
+      </c>
+      <c r="B205" s="37">
+        <v>1</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="37"/>
+      <c r="H205" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I205" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J205" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K205" s="37"/>
+      <c r="L205" s="37"/>
+      <c r="M205" s="37"/>
+      <c r="N205" s="37"/>
+      <c r="O205" s="37"/>
+      <c r="P205" s="37"/>
+      <c r="Q205" s="41">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A206" s="37">
+        <v>205</v>
+      </c>
+      <c r="B206" s="37">
+        <v>1</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="D206" s="37"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="37"/>
+      <c r="H206" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I206" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J206" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K206" s="37"/>
+      <c r="L206" s="37"/>
+      <c r="M206" s="37"/>
+      <c r="N206" s="37"/>
+      <c r="O206" s="37"/>
+      <c r="P206" s="37"/>
+      <c r="Q206" s="41">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A207" s="37">
+        <v>206</v>
+      </c>
+      <c r="B207" s="37">
+        <v>1</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37"/>
+      <c r="F207" s="37"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I207" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J207" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K207" s="37"/>
+      <c r="L207" s="37"/>
+      <c r="M207" s="37"/>
+      <c r="N207" s="37"/>
+      <c r="O207" s="37"/>
+      <c r="P207" s="37"/>
+      <c r="Q207" s="41">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A208" s="37">
+        <v>207</v>
+      </c>
+      <c r="B208" s="37">
+        <v>1</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="D208" s="37"/>
+      <c r="E208" s="37"/>
+      <c r="F208" s="37"/>
+      <c r="G208" s="37"/>
+      <c r="H208" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="I208" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="J208" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K208" s="37"/>
+      <c r="L208" s="37"/>
+      <c r="M208" s="37"/>
+      <c r="N208" s="37"/>
+      <c r="O208" s="37"/>
+      <c r="P208" s="37"/>
+      <c r="Q208" s="41">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A209" s="37">
+        <v>208</v>
+      </c>
+      <c r="B209" s="37">
+        <v>1</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D209" s="37"/>
+      <c r="E209" s="37"/>
+      <c r="F209" s="37"/>
+      <c r="G209" s="37"/>
+      <c r="H209" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I209" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J209" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K209" s="37"/>
+      <c r="L209" s="37"/>
+      <c r="M209" s="37"/>
+      <c r="N209" s="37"/>
+      <c r="O209" s="37"/>
+      <c r="P209" s="37"/>
+      <c r="Q209" s="41">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1">
@@ -7831,7 +8182,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H201">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H209">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7842,7 +8193,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I201">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I209">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7853,7 +8204,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J201">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J209">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8000,11 +8351,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F175" sqref="F175:F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15930,7 +16281,7 @@
         <v>30</v>
       </c>
       <c r="F168" s="26">
-        <f t="shared" ref="F168:F175" si="8">1/E168</f>
+        <f t="shared" ref="F168:F183" si="8">1/E168</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G168" s="27" t="s">
@@ -15952,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="28">
-        <f t="shared" ref="L168:L175" si="9">I168</f>
+        <f t="shared" ref="L168:L183" si="9">I168</f>
         <v>30</v>
       </c>
       <c r="M168" s="28">
@@ -16295,6 +16646,390 @@
         <v>1</v>
       </c>
       <c r="N175" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="39">
+        <v>175</v>
+      </c>
+      <c r="B176" s="36">
+        <v>6</v>
+      </c>
+      <c r="C176" s="39">
+        <v>47</v>
+      </c>
+      <c r="D176" s="40"/>
+      <c r="E176" s="37">
+        <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C176,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F176" s="39">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G176" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H176" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B176,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C176,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I176" s="37">
+        <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C176,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J176" s="37">
+        <v>1</v>
+      </c>
+      <c r="K176" s="37">
+        <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L176" s="37">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="M176" s="37">
+        <v>1</v>
+      </c>
+      <c r="N176" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="39">
+        <v>176</v>
+      </c>
+      <c r="B177" s="36">
+        <v>7</v>
+      </c>
+      <c r="C177" s="39">
+        <v>47</v>
+      </c>
+      <c r="D177" s="40"/>
+      <c r="E177" s="37">
+        <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C177,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F177" s="39">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G177" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H177" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B177,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C177,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I177" s="37">
+        <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C177,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J177" s="37">
+        <v>1</v>
+      </c>
+      <c r="K177" s="37">
+        <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L177" s="37">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="M177" s="37">
+        <v>1</v>
+      </c>
+      <c r="N177" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="39">
+        <v>177</v>
+      </c>
+      <c r="B178" s="36">
+        <v>8</v>
+      </c>
+      <c r="C178" s="39">
+        <v>47</v>
+      </c>
+      <c r="D178" s="40"/>
+      <c r="E178" s="37">
+        <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C178,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F178" s="39">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="G178" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H178" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B178,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C178,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I178" s="37">
+        <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C178,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J178" s="37">
+        <v>1</v>
+      </c>
+      <c r="K178" s="37">
+        <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L178" s="37">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M178" s="37">
+        <v>1</v>
+      </c>
+      <c r="N178" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="39">
+        <v>178</v>
+      </c>
+      <c r="B179" s="36">
+        <v>9</v>
+      </c>
+      <c r="C179" s="39">
+        <v>47</v>
+      </c>
+      <c r="D179" s="40"/>
+      <c r="E179" s="37">
+        <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C179,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F179" s="39">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G179" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B179,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C179,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I179" s="37">
+        <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C179,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J179" s="37">
+        <v>1</v>
+      </c>
+      <c r="K179" s="37">
+        <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L179" s="37">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M179" s="37">
+        <v>1</v>
+      </c>
+      <c r="N179" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="39">
+        <v>179</v>
+      </c>
+      <c r="B180" s="36">
+        <v>10</v>
+      </c>
+      <c r="C180" s="39">
+        <v>47</v>
+      </c>
+      <c r="D180" s="40"/>
+      <c r="E180" s="37">
+        <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C180,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F180" s="39">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G180" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H180" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B180,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C180,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I180" s="37">
+        <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C180,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J180" s="37">
+        <v>1</v>
+      </c>
+      <c r="K180" s="37">
+        <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L180" s="37">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="M180" s="37">
+        <v>1</v>
+      </c>
+      <c r="N180" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="39">
+        <v>180</v>
+      </c>
+      <c r="B181" s="36">
+        <v>35</v>
+      </c>
+      <c r="C181" s="39">
+        <v>44</v>
+      </c>
+      <c r="D181" s="40"/>
+      <c r="E181" s="37">
+        <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="F181" s="39">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="G181" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H181" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
+        <v>饺子鱼+临时活动</v>
+      </c>
+      <c r="I181" s="37">
+        <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="J181" s="37">
+        <v>1</v>
+      </c>
+      <c r="K181" s="37">
+        <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L181" s="37">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="M181" s="37">
+        <v>1</v>
+      </c>
+      <c r="N181" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" s="39">
+        <v>181</v>
+      </c>
+      <c r="B182" s="36">
+        <v>35</v>
+      </c>
+      <c r="C182" s="39">
+        <v>45</v>
+      </c>
+      <c r="D182" s="40"/>
+      <c r="E182" s="37">
+        <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="F182" s="39">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G182" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
+        <v>饺子鱼+临时活动</v>
+      </c>
+      <c r="I182" s="37">
+        <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="J182" s="37">
+        <v>1</v>
+      </c>
+      <c r="K182" s="37">
+        <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L182" s="37">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="M182" s="37">
+        <v>1</v>
+      </c>
+      <c r="N182" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183" s="39">
+        <v>182</v>
+      </c>
+      <c r="B183" s="36">
+        <v>35</v>
+      </c>
+      <c r="C183" s="39">
+        <v>46</v>
+      </c>
+      <c r="D183" s="40"/>
+      <c r="E183" s="37">
+        <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F183" s="39">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G183" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H183" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
+        <v>饺子鱼+临时活动</v>
+      </c>
+      <c r="I183" s="37">
+        <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J183" s="37">
+        <v>1</v>
+      </c>
+      <c r="K183" s="37">
+        <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L183" s="37">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="M183" s="37">
+        <v>1</v>
+      </c>
+      <c r="N183" s="37">
         <v>0</v>
       </c>
     </row>
@@ -16308,10 +17043,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17497,6 +18232,98 @@
         <v>10</v>
       </c>
       <c r="G44" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="37">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37">
+        <v>9</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="38">
+        <v>0</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1</v>
+      </c>
+      <c r="F45" s="37">
+        <v>75</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="37">
+        <v>45</v>
+      </c>
+      <c r="B46" s="37">
+        <v>9</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1</v>
+      </c>
+      <c r="F46" s="37">
+        <v>150</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="37">
+        <v>46</v>
+      </c>
+      <c r="B47" s="37">
+        <v>9</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47" s="38">
+        <v>0</v>
+      </c>
+      <c r="E47" s="38">
+        <v>1</v>
+      </c>
+      <c r="F47" s="37">
+        <v>250</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="37">
+        <v>47</v>
+      </c>
+      <c r="B48" s="37">
+        <v>9</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D48" s="38">
+        <v>1</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1</v>
+      </c>
+      <c r="F48" s="37">
+        <v>10</v>
+      </c>
+      <c r="G48" s="37" t="s">
         <v>132</v>
       </c>
     </row>
@@ -17592,11 +18419,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18469,6 +19296,29 @@
         <v>0</v>
       </c>
       <c r="G35" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="36">
         <v>0</v>
       </c>
     </row>

--- a/config_12.15/fish_2d_fish_server.xlsx
+++ b/config_12.15/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1695,19 +1695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_dz_jz",0,0.05,0.1</t>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.1,0.2</t>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>175,</t>
   </si>
   <si>
@@ -1730,6 +1717,22 @@
   </si>
   <si>
     <t>182,</t>
+  </si>
+  <si>
+    <t>"prop_dz_jz",1,0.05,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",1,0.1,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",1,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",1,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2267,8 +2270,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="I203" sqref="I203"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7889,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D202" s="37"/>
       <c r="E202" s="37"/>
@@ -7925,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D203" s="37"/>
       <c r="E203" s="37"/>
@@ -7961,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D204" s="37"/>
       <c r="E204" s="37"/>
@@ -7997,7 +8000,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D205" s="37"/>
       <c r="E205" s="37"/>
@@ -8033,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D206" s="37"/>
       <c r="E206" s="37"/>
@@ -8069,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="37" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D207" s="37"/>
       <c r="E207" s="37"/>
@@ -8105,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D208" s="37"/>
       <c r="E208" s="37"/>
@@ -8141,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="37" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D209" s="37"/>
       <c r="E209" s="37"/>
@@ -8355,7 +8358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F175" sqref="F175:F176"/>
+      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17045,8 +17048,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18243,7 +18246,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18266,7 +18269,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18289,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18312,7 +18315,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -18330,7 +18333,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_12.15/fish_2d_fish_server.xlsx
+++ b/config_12.15/fish_2d_fish_server.xlsx
@@ -1719,19 +1719,19 @@
     <t>182,</t>
   </si>
   <si>
-    <t>"prop_dz_jz",1,0.05,0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",1,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",1,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_dz_jz",1,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.05,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.1,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.2,0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17049,7 +17049,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18246,7 +18246,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18269,7 +18269,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18292,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18315,7 +18315,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
